--- a/src/test/java/com/bankingPractice/testData/Libro1.xlsx
+++ b/src/test/java/com/bankingPractice/testData/Libro1.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
